--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value752.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value752.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9350972167879517</v>
+        <v>0.9920510649681091</v>
       </c>
       <c r="B1">
-        <v>2.068622953679424</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>5.175643080637544</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.487619645891375</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.28815326308127</v>
+        <v>1.224609136581421</v>
       </c>
     </row>
   </sheetData>
